--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_20-06.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_20-06.xlsx
@@ -185,6 +185,12 @@
     <t>1:3</t>
   </si>
   <si>
+    <t>GAST-REG 24MG/5ML 125ML SUSP</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>GENUPHIL ADVANCE 10 SACHETS</t>
   </si>
   <si>
@@ -209,6 +215,9 @@
     <t>2:2</t>
   </si>
   <si>
+    <t>LOVITROD DROPS</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -218,6 +227,12 @@
     <t>3:2</t>
   </si>
   <si>
+    <t xml:space="preserve">NEXICURE 5MG  SACHET</t>
+  </si>
+  <si>
+    <t>0:24</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -284,6 +299,12 @@
     <t>5:3</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>7774:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">XILOPRED 16MG  20TAB</t>
   </si>
   <si>
@@ -311,6 +332,12 @@
     <t>28:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
     <t>فرش اسنان HASI</t>
   </si>
   <si>
@@ -321,9 +348,6 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t xml:space="preserve">كريم مرطب نفيا 60 مل </t>
@@ -1890,13 +1914,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>280.25</v>
+        <v>33</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1908,7 +1932,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1916,17 +1940,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>16.91</v>
+        <v>280.25</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1942,17 +1966,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>120</v>
+        <v>16.91</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1960,7 +1984,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1968,17 +1992,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1986,7 +2010,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1994,17 +2018,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>71.5</v>
+        <v>180</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2012,7 +2036,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2020,17 +2044,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>24</v>
+        <v>71.5</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2046,17 +2070,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2064,7 +2088,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2072,13 +2096,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2098,17 +2122,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>540</v>
+        <v>135</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2124,13 +2148,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2142,7 +2166,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2150,17 +2174,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2168,7 +2192,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2176,17 +2200,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>20</v>
+        <v>540</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2194,7 +2218,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2202,17 +2226,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>136.16</v>
+        <v>85</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2220,7 +2244,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2228,17 +2252,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2246,7 +2270,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2260,11 +2284,11 @@
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2272,7 +2296,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2280,17 +2304,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>50</v>
+        <v>136.16</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2298,7 +2322,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2306,17 +2330,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2324,7 +2348,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2332,17 +2356,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2350,7 +2374,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2364,7 +2388,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2376,7 +2400,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2384,13 +2408,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2402,7 +2426,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2410,17 +2434,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>30.07</v>
+        <v>12</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2436,17 +2460,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2468,11 +2492,11 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2494,11 +2518,11 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>34</v>
+        <v>30.07</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2514,13 +2538,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2540,17 +2564,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>192</v>
+        <v>26</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2558,7 +2582,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2566,17 +2590,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2584,7 +2608,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2592,13 +2616,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>30</v>
+        <v>2.5</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2610,7 +2634,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2618,17 +2642,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2636,7 +2660,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2644,17 +2668,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>55.600000000000001</v>
+        <v>192</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>99</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2676,11 +2700,11 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2696,13 +2720,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2714,7 +2738,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2722,17 +2746,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2740,7 +2764,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2748,17 +2772,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>69.299999999999997</v>
+        <v>55.600000000000001</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>11</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2766,7 +2790,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2774,13 +2798,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>44.549999999999997</v>
+        <v>1.98</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2792,7 +2816,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2800,17 +2824,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2818,7 +2842,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2826,13 +2850,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2840,37 +2864,167 @@
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
-      <c r="K78" s="10">
-        <v>5584.7399999999998</v>
-      </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-    </row>
-    <row r="79" ht="17.25" customHeight="1">
-      <c t="s" r="A79" s="11">
-        <v>109</v>
-      </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c t="s" r="F79" s="12">
-        <v>110</v>
-      </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="13"/>
-      <c t="s" r="I79" s="14">
+      <c r="A78" s="6">
+        <v>75</v>
+      </c>
+      <c t="s" r="B78" s="7">
+        <v>112</v>
+      </c>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c t="s" r="H78" s="8">
+        <v>108</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="9">
+        <v>15</v>
+      </c>
+      <c r="M78" s="9"/>
+      <c t="s" r="N78" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" ht="24.75" customHeight="1">
+      <c r="A79" s="6">
+        <v>76</v>
+      </c>
+      <c t="s" r="B79" s="7">
+        <v>113</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c t="s" r="H79" s="8">
+        <v>50</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="9">
+        <v>69.299999999999997</v>
+      </c>
+      <c r="M79" s="9"/>
+      <c t="s" r="N79" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" ht="25.5" customHeight="1">
+      <c r="A80" s="6">
+        <v>77</v>
+      </c>
+      <c t="s" r="B80" s="7">
+        <v>114</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c t="s" r="H80" s="8">
+        <v>50</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9">
+        <v>44.549999999999997</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c t="s" r="N80" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" ht="24.75" customHeight="1">
+      <c r="A81" s="6">
+        <v>78</v>
+      </c>
+      <c t="s" r="B81" s="7">
+        <v>115</v>
+      </c>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c t="s" r="H81" s="8">
         <v>111</v>
       </c>
-      <c r="J79" s="14"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="9">
+        <v>35</v>
+      </c>
+      <c r="M81" s="9"/>
+      <c t="s" r="N81" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="6">
+        <v>79</v>
+      </c>
+      <c t="s" r="B82" s="7">
+        <v>116</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c t="s" r="H82" s="8">
+        <v>88</v>
+      </c>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="9">
+        <v>30</v>
+      </c>
+      <c r="M82" s="9"/>
+      <c t="s" r="N82" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" ht="25.5" customHeight="1">
+      <c r="K83" s="10">
+        <v>5802.2200000000003</v>
+      </c>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+    </row>
+    <row r="84" ht="17.25" customHeight="1">
+      <c t="s" r="A84" s="11">
+        <v>117</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c t="s" r="F84" s="12">
+        <v>118</v>
+      </c>
+      <c r="G84" s="12"/>
+      <c r="H84" s="13"/>
+      <c t="s" r="I84" s="14">
+        <v>119</v>
+      </c>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="233">
+  <mergeCells count="248">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3100,10 +3254,25 @@
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="I84:N84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
